--- a/data/documentation/spreadsheets/done/chakra-ui@chakra-ui.xlsx
+++ b/data/documentation/spreadsheets/done/chakra-ui@chakra-ui.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20371"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\usp\data\documentation\spreadsheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fronchettl\Documents\GitHub\usp\data\documentation\spreadsheets\done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD747331-1638-41E5-B532-60C9270D3B6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD047F0D-2CBC-44EE-B55A-E12C53F199D1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="99">
   <si>
     <t>CF – Contribution flow</t>
   </si>
@@ -685,18 +685,18 @@
   <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G94" sqref="G94"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.6171875" defaultRowHeight="13.8" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="41.19921875" customWidth="1"/>
-    <col min="2" max="7" width="22.5" customWidth="1"/>
-    <col min="8" max="26" width="7.59765625" customWidth="1"/>
+    <col min="1" max="1" width="41.1875" customWidth="1"/>
+    <col min="2" max="7" width="22.47265625" customWidth="1"/>
+    <col min="8" max="26" width="7.6171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -716,102 +716,102 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>25</v>
       </c>
@@ -819,7 +819,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7" t="s">
         <v>26</v>
       </c>
@@ -827,7 +827,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7" t="s">
         <v>27</v>
       </c>
@@ -835,7 +835,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7" t="s">
         <v>28</v>
       </c>
@@ -843,7 +843,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7" t="s">
         <v>29</v>
       </c>
@@ -851,29 +851,23 @@
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B26" t="s">
         <v>98</v>
       </c>
-      <c r="E26" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B27" t="s">
-        <v>98</v>
-      </c>
       <c r="D27" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7" t="s">
         <v>32</v>
       </c>
@@ -881,7 +875,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7" t="s">
         <v>33</v>
       </c>
@@ -889,7 +883,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7" t="s">
         <v>34</v>
       </c>
@@ -897,7 +891,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7" t="s">
         <v>35</v>
       </c>
@@ -905,29 +899,23 @@
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7" t="s">
         <v>36</v>
       </c>
       <c r="F32" t="s">
         <v>98</v>
       </c>
-      <c r="G32" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7" t="s">
         <v>37</v>
       </c>
       <c r="F33" t="s">
         <v>98</v>
       </c>
-      <c r="G33" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:6" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7" t="s">
         <v>38</v>
       </c>
@@ -935,7 +923,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="7" t="s">
         <v>39</v>
       </c>
@@ -943,7 +931,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7" t="s">
         <v>40</v>
       </c>
@@ -951,7 +939,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="7" t="s">
         <v>41</v>
       </c>
@@ -959,7 +947,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="7" t="s">
         <v>42</v>
       </c>
@@ -967,7 +955,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7" t="s">
         <v>43</v>
       </c>
@@ -975,7 +963,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="7" t="s">
         <v>44</v>
       </c>
@@ -983,7 +971,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="7" t="s">
         <v>45</v>
       </c>
@@ -991,7 +979,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="7" t="s">
         <v>46</v>
       </c>
@@ -999,7 +987,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="7" t="s">
         <v>47</v>
       </c>
@@ -1007,7 +995,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="7" t="s">
         <v>48</v>
       </c>
@@ -1015,7 +1003,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7" t="s">
         <v>49</v>
       </c>
@@ -1023,7 +1011,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="7" t="s">
         <v>50</v>
       </c>
@@ -1031,7 +1019,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="7" t="s">
         <v>51</v>
       </c>
@@ -1039,7 +1027,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="7" t="s">
         <v>52</v>
       </c>
@@ -1047,7 +1035,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="7" t="s">
         <v>53</v>
       </c>
@@ -1055,7 +1043,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="7" t="s">
         <v>54</v>
       </c>
@@ -1063,7 +1051,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7" t="s">
         <v>55</v>
       </c>
@@ -1071,7 +1059,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="7" t="s">
         <v>56</v>
       </c>
@@ -1079,7 +1067,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="7" t="s">
         <v>57</v>
       </c>
@@ -1087,7 +1075,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="7" t="s">
         <v>58</v>
       </c>
@@ -1095,62 +1083,62 @@
         <v>98</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="7" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="7" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="7" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="7" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="7" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="7" t="s">
         <v>70</v>
       </c>
@@ -1158,7 +1146,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="7" t="s">
         <v>71</v>
       </c>
@@ -1166,7 +1154,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="7" t="s">
         <v>72</v>
       </c>
@@ -1174,7 +1162,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>73</v>
       </c>
@@ -1182,7 +1170,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="7" t="s">
         <v>74</v>
       </c>
@@ -1190,7 +1178,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="7" t="s">
         <v>75</v>
       </c>
@@ -1198,7 +1186,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="7" t="s">
         <v>76</v>
       </c>
@@ -1206,7 +1194,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="7" t="s">
         <v>77</v>
       </c>
@@ -1214,7 +1202,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="7" t="s">
         <v>78</v>
       </c>
@@ -1222,7 +1210,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="7" t="s">
         <v>79</v>
       </c>
@@ -1230,7 +1218,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="7" t="s">
         <v>80</v>
       </c>
@@ -1238,7 +1226,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="7" t="s">
         <v>81</v>
       </c>
@@ -1246,7 +1234,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="7" t="s">
         <v>82</v>
       </c>
@@ -1254,7 +1242,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="72" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="7" t="s">
         <v>83</v>
       </c>
@@ -1262,7 +1250,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="7" t="s">
         <v>84</v>
       </c>
@@ -1270,7 +1258,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="7" t="s">
         <v>85</v>
       </c>
@@ -1278,7 +1266,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="7" t="s">
         <v>86</v>
       </c>
@@ -1286,7 +1274,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="7" t="s">
         <v>87</v>
       </c>
@@ -1294,7 +1282,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="7" t="s">
         <v>88</v>
       </c>
@@ -1302,7 +1290,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="7" t="s">
         <v>89</v>
       </c>
@@ -1310,7 +1298,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="7" t="s">
         <v>90</v>
       </c>
@@ -1318,7 +1306,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="7" t="s">
         <v>91</v>
       </c>
@@ -1326,27 +1314,27 @@
         <v>98</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="7" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="7" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="7" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="7" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="7" t="s">
         <v>96</v>
       </c>
@@ -1354,7 +1342,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="7" t="s">
         <v>97</v>
       </c>
